--- a/backend/controllers/UNITTEST 2.xlsx
+++ b/backend/controllers/UNITTEST 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omkar\Desktop\Omkar\PICT\TEIT 2\Internship-inhouse\CO-Attainment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B634DA6A-AFD1-46C2-8BE2-B52B357EC4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF899F-6918-4FB4-A3BA-7BC5A9639BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B49CC6D9-4AE1-4EB6-BB9B-5A10A73211AF}"/>
   </bookViews>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6425C2-434F-4637-8A6B-A92BE6C51EFF}">
   <dimension ref="A1:M248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="P169" sqref="P169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,24 +2158,12 @@
       <c r="D2" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="5">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6">
-        <v>5</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="7">
         <v>59</v>
       </c>
